--- a/app-web/keywords.xlsx
+++ b/app-web/keywords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
   <si>
     <t>人力發展處</t>
   </si>
@@ -293,6 +293,9 @@
     <t>與會</t>
   </si>
   <si>
+    <t>單位預算</t>
+  </si>
+  <si>
     <t>經濟</t>
   </si>
   <si>
@@ -305,9 +308,6 @@
     <t>公務人員</t>
   </si>
   <si>
-    <t>單位預算</t>
-  </si>
-  <si>
     <t>應用軟體憑證</t>
   </si>
   <si>
@@ -390,6 +390,129 @@
   </si>
   <si>
     <t>單位憑證</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>各機關</t>
+  </si>
+  <si>
+    <t>推動方案</t>
+  </si>
+  <si>
+    <t>調查意見</t>
+  </si>
+  <si>
+    <t>學習</t>
+  </si>
+  <si>
+    <t>目標</t>
+  </si>
+  <si>
+    <t>臺灣</t>
+  </si>
+  <si>
+    <t>發布</t>
+  </si>
+  <si>
+    <t>軍公教</t>
+  </si>
+  <si>
+    <t>附表</t>
+  </si>
+  <si>
+    <t>我國</t>
+  </si>
+  <si>
+    <t>外國專業人才</t>
+  </si>
+  <si>
+    <t>名冊</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>憑證申請書</t>
+  </si>
+  <si>
+    <t>檢討改進</t>
+  </si>
+  <si>
+    <t>特種基金</t>
+  </si>
+  <si>
+    <t>溫室氣體減量推動方案</t>
+  </si>
+  <si>
+    <t>初審合格</t>
+  </si>
+  <si>
+    <t>同仁</t>
+  </si>
+  <si>
+    <t>主管</t>
+  </si>
+  <si>
+    <t>提供</t>
+  </si>
+  <si>
+    <t>SSL類伺服器</t>
+  </si>
+  <si>
+    <t>擔任</t>
+  </si>
+  <si>
+    <t>彙編</t>
+  </si>
+  <si>
+    <t>註銷</t>
+  </si>
+  <si>
+    <t>SSL類憑證</t>
+  </si>
+  <si>
+    <t>107年度</t>
+  </si>
+  <si>
+    <t>休假</t>
+  </si>
+  <si>
+    <t>國家</t>
+  </si>
+  <si>
+    <t>收支估計表</t>
+  </si>
+  <si>
+    <t>國內</t>
+  </si>
+  <si>
+    <t>SSL類伺服器應用軟體憑證</t>
+  </si>
+  <si>
+    <t>承辦人</t>
+  </si>
+  <si>
+    <t>攜帶</t>
+  </si>
+  <si>
+    <t>新北市政府</t>
+  </si>
+  <si>
+    <t>主管機關</t>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>取得</t>
+  </si>
+  <si>
+    <t>本縣</t>
+  </si>
+  <si>
+    <t>綜合處理</t>
   </si>
 </sst>
 </file>
@@ -434,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -891,16 +1014,16 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -908,10 +1031,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -971,7 +1094,7 @@
         <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -1031,7 +1154,7 @@
         <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -1061,6 +1184,206 @@
       </c>
       <c r="F31" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
